--- a/صيدليات دكتور مصطفي طلعت_2026-01-15_21-54.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-15_21-54.xlsx
@@ -143,6 +143,12 @@
     <t>1:1</t>
   </si>
   <si>
+    <t>DERMOVATE 0.05% TOP. CREAM 25 GM</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
     <t>DIMRA 20 F.C.TAB.</t>
   </si>
   <si>
@@ -263,6 +269,9 @@
     <t>LIDOCAINE 10% TOPICAL SPRAY 15 GM</t>
   </si>
   <si>
+    <t>MAVILOR 5MG 30 TAB.</t>
+  </si>
+  <si>
     <t>MOTILIUM 10MG 40 F.C.TAB.</t>
   </si>
   <si>
@@ -305,6 +314,9 @@
     <t>OTRIVIN 0.05% PEDIATRIC NASAL DROPS 15 ML</t>
   </si>
   <si>
+    <t>OTRIVIN 0.1% ADULT NASAL DROPS 15 ML</t>
+  </si>
+  <si>
     <t>OTRIVIN BABY SALINE NASAL DROPS 15 ML</t>
   </si>
   <si>
@@ -317,15 +329,15 @@
     <t>PANADOL ACUTE HEAD COLD</t>
   </si>
   <si>
+    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
+  </si>
+  <si>
     <t>PANADOL COLD &amp; FLU DAY 24 F.C. TABS</t>
   </si>
   <si>
     <t>PANADOL EXTRA 24 F.C. TAB</t>
   </si>
   <si>
-    <t>5:0</t>
-  </si>
-  <si>
     <t>PANTAZOL 40MG 14 ENTERIC COATED TAB.</t>
   </si>
   <si>
@@ -405,6 +417,9 @@
   </si>
   <si>
     <t>URSOFALK 250MG 20 CAPS.</t>
+  </si>
+  <si>
+    <t>VARDE 20 MG 4 F.C. TABS</t>
   </si>
   <si>
     <t>VASTAFLAM 50MG 20 SUGAR COATED TAB.</t>
@@ -1741,13 +1756,13 @@
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
       <c t="s" r="H28" s="8">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="I28" s="8"/>
       <c r="J28" s="8"/>
       <c r="K28" s="8"/>
       <c r="L28" s="9">
-        <v>70</v>
+        <v>44</v>
       </c>
       <c r="M28" s="9"/>
       <c t="s" r="N28" s="7">
@@ -1759,7 +1774,7 @@
         <v>26</v>
       </c>
       <c t="s" r="B29" s="7">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
@@ -1767,13 +1782,13 @@
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
       <c t="s" r="H29" s="8">
-        <v>46</v>
+        <v>9</v>
       </c>
       <c r="I29" s="8"/>
       <c r="J29" s="8"/>
       <c r="K29" s="8"/>
       <c r="L29" s="9">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="M29" s="9"/>
       <c t="s" r="N29" s="7">
@@ -1819,13 +1834,13 @@
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
       <c t="s" r="H31" s="8">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="I31" s="8"/>
       <c r="J31" s="8"/>
       <c r="K31" s="8"/>
       <c r="L31" s="9">
-        <v>87</v>
+        <v>48</v>
       </c>
       <c r="M31" s="9"/>
       <c t="s" r="N31" s="7">
@@ -1837,7 +1852,7 @@
         <v>29</v>
       </c>
       <c t="s" r="B32" s="7">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
@@ -1845,17 +1860,17 @@
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
       <c t="s" r="H32" s="8">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I32" s="8"/>
       <c r="J32" s="8"/>
       <c r="K32" s="8"/>
       <c r="L32" s="9">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="M32" s="9"/>
       <c t="s" r="N32" s="7">
-        <v>34</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33" ht="25.5" customHeight="1">
@@ -1863,7 +1878,7 @@
         <v>30</v>
       </c>
       <c t="s" r="B33" s="7">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
@@ -1871,17 +1886,17 @@
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
       <c t="s" r="H33" s="8">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="I33" s="8"/>
       <c r="J33" s="8"/>
       <c r="K33" s="8"/>
       <c r="L33" s="9">
-        <v>-220</v>
+        <v>104</v>
       </c>
       <c r="M33" s="9"/>
       <c t="s" r="N33" s="7">
-        <v>9</v>
+        <v>34</v>
       </c>
     </row>
     <row r="34" ht="24.75" customHeight="1">
@@ -1889,7 +1904,7 @@
         <v>31</v>
       </c>
       <c t="s" r="B34" s="7">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
@@ -1897,13 +1912,13 @@
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
       <c t="s" r="H34" s="8">
-        <v>53</v>
+        <v>9</v>
       </c>
       <c r="I34" s="8"/>
       <c r="J34" s="8"/>
       <c r="K34" s="8"/>
       <c r="L34" s="9">
-        <v>-60</v>
+        <v>-220</v>
       </c>
       <c r="M34" s="9"/>
       <c t="s" r="N34" s="7">
@@ -1923,13 +1938,13 @@
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
       <c t="s" r="H35" s="8">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="I35" s="8"/>
       <c r="J35" s="8"/>
       <c r="K35" s="8"/>
       <c r="L35" s="9">
-        <v>26</v>
+        <v>-60</v>
       </c>
       <c r="M35" s="9"/>
       <c t="s" r="N35" s="7">
@@ -1941,7 +1956,7 @@
         <v>33</v>
       </c>
       <c t="s" r="B36" s="7">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
@@ -1955,7 +1970,7 @@
       <c r="J36" s="8"/>
       <c r="K36" s="8"/>
       <c r="L36" s="9">
-        <v>78</v>
+        <v>26</v>
       </c>
       <c r="M36" s="9"/>
       <c t="s" r="N36" s="7">
@@ -1967,7 +1982,7 @@
         <v>34</v>
       </c>
       <c t="s" r="B37" s="7">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
@@ -1981,7 +1996,7 @@
       <c r="J37" s="8"/>
       <c r="K37" s="8"/>
       <c r="L37" s="9">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="M37" s="9"/>
       <c t="s" r="N37" s="7">
@@ -1993,7 +2008,7 @@
         <v>35</v>
       </c>
       <c t="s" r="B38" s="7">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
@@ -2001,17 +2016,17 @@
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
       <c t="s" r="H38" s="8">
-        <v>58</v>
+        <v>9</v>
       </c>
       <c r="I38" s="8"/>
       <c r="J38" s="8"/>
       <c r="K38" s="8"/>
       <c r="L38" s="9">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="M38" s="9"/>
       <c t="s" r="N38" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="39" ht="24.75" customHeight="1">
@@ -2027,13 +2042,13 @@
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
       <c t="s" r="H39" s="8">
-        <v>9</v>
+        <v>60</v>
       </c>
       <c r="I39" s="8"/>
       <c r="J39" s="8"/>
       <c r="K39" s="8"/>
       <c r="L39" s="9">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="M39" s="9"/>
       <c t="s" r="N39" s="7">
@@ -2045,7 +2060,7 @@
         <v>37</v>
       </c>
       <c t="s" r="B40" s="7">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C40" s="7"/>
       <c r="D40" s="7"/>
@@ -2053,17 +2068,17 @@
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
       <c t="s" r="H40" s="8">
-        <v>46</v>
+        <v>9</v>
       </c>
       <c r="I40" s="8"/>
       <c r="J40" s="8"/>
       <c r="K40" s="8"/>
       <c r="L40" s="9">
-        <v>147.5</v>
+        <v>15</v>
       </c>
       <c r="M40" s="9"/>
       <c t="s" r="N40" s="7">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" ht="24.75" customHeight="1">
@@ -2071,7 +2086,7 @@
         <v>38</v>
       </c>
       <c t="s" r="B41" s="7">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C41" s="7"/>
       <c r="D41" s="7"/>
@@ -2079,17 +2094,17 @@
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
       <c t="s" r="H41" s="8">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="I41" s="8"/>
       <c r="J41" s="8"/>
       <c r="K41" s="8"/>
       <c r="L41" s="9">
-        <v>52</v>
+        <v>147.5</v>
       </c>
       <c r="M41" s="9"/>
       <c t="s" r="N41" s="7">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2097,7 +2112,7 @@
         <v>39</v>
       </c>
       <c t="s" r="B42" s="7">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
@@ -2105,17 +2120,17 @@
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
       <c t="s" r="H42" s="8">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="I42" s="8"/>
       <c r="J42" s="8"/>
       <c r="K42" s="8"/>
       <c r="L42" s="9">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="M42" s="9"/>
       <c t="s" r="N42" s="7">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="43" ht="25.5" customHeight="1">
@@ -2123,7 +2138,7 @@
         <v>40</v>
       </c>
       <c t="s" r="B43" s="7">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C43" s="7"/>
       <c r="D43" s="7"/>
@@ -2131,7 +2146,7 @@
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
       <c t="s" r="H43" s="8">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I43" s="8"/>
       <c r="J43" s="8"/>
@@ -2141,7 +2156,7 @@
       </c>
       <c r="M43" s="9"/>
       <c t="s" r="N43" s="7">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="44" ht="24.75" customHeight="1">
@@ -2149,7 +2164,7 @@
         <v>41</v>
       </c>
       <c t="s" r="B44" s="7">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C44" s="7"/>
       <c r="D44" s="7"/>
@@ -2157,13 +2172,13 @@
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
       <c t="s" r="H44" s="8">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="I44" s="8"/>
       <c r="J44" s="8"/>
       <c r="K44" s="8"/>
       <c r="L44" s="9">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="M44" s="9"/>
       <c t="s" r="N44" s="7">
@@ -2175,7 +2190,7 @@
         <v>42</v>
       </c>
       <c t="s" r="B45" s="7">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C45" s="7"/>
       <c r="D45" s="7"/>
@@ -2183,13 +2198,13 @@
       <c r="F45" s="7"/>
       <c r="G45" s="7"/>
       <c t="s" r="H45" s="8">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="I45" s="8"/>
       <c r="J45" s="8"/>
       <c r="K45" s="8"/>
       <c r="L45" s="9">
-        <v>30.670000000000002</v>
+        <v>29</v>
       </c>
       <c r="M45" s="9"/>
       <c t="s" r="N45" s="7">
@@ -2201,7 +2216,7 @@
         <v>43</v>
       </c>
       <c t="s" r="B46" s="7">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C46" s="7"/>
       <c r="D46" s="7"/>
@@ -2209,17 +2224,17 @@
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
       <c t="s" r="H46" s="8">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="I46" s="8"/>
       <c r="J46" s="8"/>
       <c r="K46" s="8"/>
       <c r="L46" s="9">
-        <v>16</v>
+        <v>30.670000000000002</v>
       </c>
       <c r="M46" s="9"/>
       <c t="s" r="N46" s="7">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2241,11 +2256,11 @@
       <c r="J47" s="8"/>
       <c r="K47" s="8"/>
       <c r="L47" s="9">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="M47" s="9"/>
       <c t="s" r="N47" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="48" ht="25.5" customHeight="1">
@@ -2261,17 +2276,17 @@
       <c r="F48" s="7"/>
       <c r="G48" s="7"/>
       <c t="s" r="H48" s="8">
-        <v>11</v>
+        <v>71</v>
       </c>
       <c r="I48" s="8"/>
       <c r="J48" s="8"/>
       <c r="K48" s="8"/>
       <c r="L48" s="9">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="M48" s="9"/>
       <c t="s" r="N48" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="49" ht="24.75" customHeight="1">
@@ -2279,7 +2294,7 @@
         <v>46</v>
       </c>
       <c t="s" r="B49" s="7">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C49" s="7"/>
       <c r="D49" s="7"/>
@@ -2287,17 +2302,17 @@
       <c r="F49" s="7"/>
       <c r="G49" s="7"/>
       <c t="s" r="H49" s="8">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="I49" s="8"/>
       <c r="J49" s="8"/>
       <c r="K49" s="8"/>
       <c r="L49" s="9">
-        <v>84</v>
+        <v>42</v>
       </c>
       <c r="M49" s="9"/>
       <c t="s" r="N49" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" ht="25.5" customHeight="1">
@@ -2305,7 +2320,7 @@
         <v>47</v>
       </c>
       <c t="s" r="B50" s="7">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C50" s="7"/>
       <c r="D50" s="7"/>
@@ -2313,13 +2328,13 @@
       <c r="F50" s="7"/>
       <c r="G50" s="7"/>
       <c t="s" r="H50" s="8">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="I50" s="8"/>
       <c r="J50" s="8"/>
       <c r="K50" s="8"/>
       <c r="L50" s="9">
-        <v>290</v>
+        <v>84</v>
       </c>
       <c r="M50" s="9"/>
       <c t="s" r="N50" s="7">
@@ -2331,7 +2346,7 @@
         <v>48</v>
       </c>
       <c t="s" r="B51" s="7">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C51" s="7"/>
       <c r="D51" s="7"/>
@@ -2339,17 +2354,17 @@
       <c r="F51" s="7"/>
       <c r="G51" s="7"/>
       <c t="s" r="H51" s="8">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I51" s="8"/>
       <c r="J51" s="8"/>
       <c r="K51" s="8"/>
       <c r="L51" s="9">
-        <v>18</v>
+        <v>290</v>
       </c>
       <c r="M51" s="9"/>
       <c t="s" r="N51" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2357,7 +2372,7 @@
         <v>49</v>
       </c>
       <c t="s" r="B52" s="7">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C52" s="7"/>
       <c r="D52" s="7"/>
@@ -2365,17 +2380,17 @@
       <c r="F52" s="7"/>
       <c r="G52" s="7"/>
       <c t="s" r="H52" s="8">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I52" s="8"/>
       <c r="J52" s="8"/>
       <c r="K52" s="8"/>
       <c r="L52" s="9">
-        <v>65</v>
+        <v>18</v>
       </c>
       <c r="M52" s="9"/>
       <c t="s" r="N52" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53" ht="25.5" customHeight="1">
@@ -2383,7 +2398,7 @@
         <v>50</v>
       </c>
       <c t="s" r="B53" s="7">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C53" s="7"/>
       <c r="D53" s="7"/>
@@ -2391,13 +2406,13 @@
       <c r="F53" s="7"/>
       <c r="G53" s="7"/>
       <c t="s" r="H53" s="8">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I53" s="8"/>
       <c r="J53" s="8"/>
       <c r="K53" s="8"/>
       <c r="L53" s="9">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="M53" s="9"/>
       <c t="s" r="N53" s="7">
@@ -2409,7 +2424,7 @@
         <v>51</v>
       </c>
       <c t="s" r="B54" s="7">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C54" s="7"/>
       <c r="D54" s="7"/>
@@ -2417,13 +2432,13 @@
       <c r="F54" s="7"/>
       <c r="G54" s="7"/>
       <c t="s" r="H54" s="8">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="I54" s="8"/>
       <c r="J54" s="8"/>
       <c r="K54" s="8"/>
       <c r="L54" s="9">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="M54" s="9"/>
       <c t="s" r="N54" s="7">
@@ -2435,7 +2450,7 @@
         <v>52</v>
       </c>
       <c t="s" r="B55" s="7">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C55" s="7"/>
       <c r="D55" s="7"/>
@@ -2443,17 +2458,17 @@
       <c r="F55" s="7"/>
       <c r="G55" s="7"/>
       <c t="s" r="H55" s="8">
-        <v>78</v>
+        <v>34</v>
       </c>
       <c r="I55" s="8"/>
       <c r="J55" s="8"/>
       <c r="K55" s="8"/>
       <c r="L55" s="9">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="M55" s="9"/>
       <c t="s" r="N55" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="56" ht="24.75" customHeight="1">
@@ -2469,17 +2484,17 @@
       <c r="F56" s="7"/>
       <c r="G56" s="7"/>
       <c t="s" r="H56" s="8">
-        <v>12</v>
+        <v>80</v>
       </c>
       <c r="I56" s="8"/>
       <c r="J56" s="8"/>
       <c r="K56" s="8"/>
       <c r="L56" s="9">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="M56" s="9"/>
       <c t="s" r="N56" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2487,7 +2502,7 @@
         <v>54</v>
       </c>
       <c t="s" r="B57" s="7">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C57" s="7"/>
       <c r="D57" s="7"/>
@@ -2495,17 +2510,17 @@
       <c r="F57" s="7"/>
       <c r="G57" s="7"/>
       <c t="s" r="H57" s="8">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="I57" s="8"/>
       <c r="J57" s="8"/>
       <c r="K57" s="8"/>
       <c r="L57" s="9">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="M57" s="9"/>
       <c t="s" r="N57" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="58" ht="25.5" customHeight="1">
@@ -2513,7 +2528,7 @@
         <v>55</v>
       </c>
       <c t="s" r="B58" s="7">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C58" s="7"/>
       <c r="D58" s="7"/>
@@ -2521,17 +2536,17 @@
       <c r="F58" s="7"/>
       <c r="G58" s="7"/>
       <c t="s" r="H58" s="8">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="I58" s="8"/>
       <c r="J58" s="8"/>
       <c r="K58" s="8"/>
       <c r="L58" s="9">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="M58" s="9"/>
       <c t="s" r="N58" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="59" ht="24.75" customHeight="1">
@@ -2539,7 +2554,7 @@
         <v>56</v>
       </c>
       <c t="s" r="B59" s="7">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C59" s="7"/>
       <c r="D59" s="7"/>
@@ -2547,13 +2562,13 @@
       <c r="F59" s="7"/>
       <c r="G59" s="7"/>
       <c t="s" r="H59" s="8">
-        <v>58</v>
+        <v>9</v>
       </c>
       <c r="I59" s="8"/>
       <c r="J59" s="8"/>
       <c r="K59" s="8"/>
       <c r="L59" s="9">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M59" s="9"/>
       <c t="s" r="N59" s="7">
@@ -2565,7 +2580,7 @@
         <v>57</v>
       </c>
       <c t="s" r="B60" s="7">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C60" s="7"/>
       <c r="D60" s="7"/>
@@ -2573,17 +2588,17 @@
       <c r="F60" s="7"/>
       <c r="G60" s="7"/>
       <c t="s" r="H60" s="8">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="I60" s="8"/>
       <c r="J60" s="8"/>
       <c r="K60" s="8"/>
       <c r="L60" s="9">
-        <v>76</v>
+        <v>48</v>
       </c>
       <c r="M60" s="9"/>
       <c t="s" r="N60" s="7">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="61" ht="24.75" customHeight="1">
@@ -2591,7 +2606,7 @@
         <v>58</v>
       </c>
       <c t="s" r="B61" s="7">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C61" s="7"/>
       <c r="D61" s="7"/>
@@ -2599,17 +2614,17 @@
       <c r="F61" s="7"/>
       <c r="G61" s="7"/>
       <c t="s" r="H61" s="8">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="I61" s="8"/>
       <c r="J61" s="8"/>
       <c r="K61" s="8"/>
       <c r="L61" s="9">
-        <v>25</v>
+        <v>76</v>
       </c>
       <c r="M61" s="9"/>
       <c t="s" r="N61" s="7">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -2617,7 +2632,7 @@
         <v>59</v>
       </c>
       <c t="s" r="B62" s="7">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C62" s="7"/>
       <c r="D62" s="7"/>
@@ -2625,13 +2640,13 @@
       <c r="F62" s="7"/>
       <c r="G62" s="7"/>
       <c t="s" r="H62" s="8">
-        <v>86</v>
+        <v>48</v>
       </c>
       <c r="I62" s="8"/>
       <c r="J62" s="8"/>
       <c r="K62" s="8"/>
       <c r="L62" s="9">
-        <v>50</v>
+        <v>105</v>
       </c>
       <c r="M62" s="9"/>
       <c t="s" r="N62" s="7">
@@ -2651,17 +2666,17 @@
       <c r="F63" s="7"/>
       <c r="G63" s="7"/>
       <c t="s" r="H63" s="8">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="I63" s="8"/>
       <c r="J63" s="8"/>
       <c r="K63" s="8"/>
       <c r="L63" s="9">
-        <v>57</v>
+        <v>25</v>
       </c>
       <c r="M63" s="9"/>
       <c t="s" r="N63" s="7">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="64" ht="24.75" customHeight="1">
@@ -2677,17 +2692,17 @@
       <c r="F64" s="7"/>
       <c r="G64" s="7"/>
       <c t="s" r="H64" s="8">
-        <v>9</v>
+        <v>89</v>
       </c>
       <c r="I64" s="8"/>
       <c r="J64" s="8"/>
       <c r="K64" s="8"/>
       <c r="L64" s="9">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="M64" s="9"/>
       <c t="s" r="N64" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="65" ht="25.5" customHeight="1">
@@ -2695,7 +2710,7 @@
         <v>62</v>
       </c>
       <c t="s" r="B65" s="7">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C65" s="7"/>
       <c r="D65" s="7"/>
@@ -2703,17 +2718,17 @@
       <c r="F65" s="7"/>
       <c r="G65" s="7"/>
       <c t="s" r="H65" s="8">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="I65" s="8"/>
       <c r="J65" s="8"/>
       <c r="K65" s="8"/>
       <c r="L65" s="9">
-        <v>152</v>
+        <v>57</v>
       </c>
       <c r="M65" s="9"/>
       <c t="s" r="N65" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="66" ht="24.75" customHeight="1">
@@ -2721,7 +2736,7 @@
         <v>63</v>
       </c>
       <c t="s" r="B66" s="7">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C66" s="7"/>
       <c r="D66" s="7"/>
@@ -2729,17 +2744,17 @@
       <c r="F66" s="7"/>
       <c r="G66" s="7"/>
       <c t="s" r="H66" s="8">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I66" s="8"/>
       <c r="J66" s="8"/>
       <c r="K66" s="8"/>
       <c r="L66" s="9">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="M66" s="9"/>
       <c t="s" r="N66" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -2747,7 +2762,7 @@
         <v>64</v>
       </c>
       <c t="s" r="B67" s="7">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C67" s="7"/>
       <c r="D67" s="7"/>
@@ -2755,13 +2770,13 @@
       <c r="F67" s="7"/>
       <c r="G67" s="7"/>
       <c t="s" r="H67" s="8">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="I67" s="8"/>
       <c r="J67" s="8"/>
       <c r="K67" s="8"/>
       <c r="L67" s="9">
-        <v>67</v>
+        <v>152</v>
       </c>
       <c r="M67" s="9"/>
       <c t="s" r="N67" s="7">
@@ -2773,7 +2788,7 @@
         <v>65</v>
       </c>
       <c t="s" r="B68" s="7">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C68" s="7"/>
       <c r="D68" s="7"/>
@@ -2781,17 +2796,17 @@
       <c r="F68" s="7"/>
       <c r="G68" s="7"/>
       <c t="s" r="H68" s="8">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="I68" s="8"/>
       <c r="J68" s="8"/>
       <c r="K68" s="8"/>
       <c r="L68" s="9">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="M68" s="9"/>
       <c t="s" r="N68" s="7">
-        <v>93</v>
+        <v>9</v>
       </c>
     </row>
     <row r="69" ht="24.75" customHeight="1">
@@ -2807,13 +2822,13 @@
       <c r="F69" s="7"/>
       <c r="G69" s="7"/>
       <c t="s" r="H69" s="8">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I69" s="8"/>
       <c r="J69" s="8"/>
       <c r="K69" s="8"/>
       <c r="L69" s="9">
-        <v>19.5</v>
+        <v>67</v>
       </c>
       <c r="M69" s="9"/>
       <c t="s" r="N69" s="7">
@@ -2833,17 +2848,17 @@
       <c r="F70" s="7"/>
       <c r="G70" s="7"/>
       <c t="s" r="H70" s="8">
-        <v>96</v>
+        <v>34</v>
       </c>
       <c r="I70" s="8"/>
       <c r="J70" s="8"/>
       <c r="K70" s="8"/>
       <c r="L70" s="9">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="M70" s="9"/>
       <c t="s" r="N70" s="7">
-        <v>12</v>
+        <v>96</v>
       </c>
     </row>
     <row r="71" ht="24.75" customHeight="1">
@@ -2859,13 +2874,13 @@
       <c r="F71" s="7"/>
       <c r="G71" s="7"/>
       <c t="s" r="H71" s="8">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="I71" s="8"/>
       <c r="J71" s="8"/>
       <c r="K71" s="8"/>
       <c r="L71" s="9">
-        <v>24</v>
+        <v>19.5</v>
       </c>
       <c r="M71" s="9"/>
       <c t="s" r="N71" s="7">
@@ -2885,17 +2900,17 @@
       <c r="F72" s="7"/>
       <c r="G72" s="7"/>
       <c t="s" r="H72" s="8">
-        <v>34</v>
+        <v>99</v>
       </c>
       <c r="I72" s="8"/>
       <c r="J72" s="8"/>
       <c r="K72" s="8"/>
       <c r="L72" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="M72" s="9"/>
       <c t="s" r="N72" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="73" ht="25.5" customHeight="1">
@@ -2903,7 +2918,7 @@
         <v>70</v>
       </c>
       <c t="s" r="B73" s="7">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C73" s="7"/>
       <c r="D73" s="7"/>
@@ -2911,13 +2926,13 @@
       <c r="F73" s="7"/>
       <c r="G73" s="7"/>
       <c t="s" r="H73" s="8">
-        <v>100</v>
+        <v>23</v>
       </c>
       <c r="I73" s="8"/>
       <c r="J73" s="8"/>
       <c r="K73" s="8"/>
       <c r="L73" s="9">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="M73" s="9"/>
       <c t="s" r="N73" s="7">
@@ -2937,13 +2952,13 @@
       <c r="F74" s="7"/>
       <c r="G74" s="7"/>
       <c t="s" r="H74" s="8">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="I74" s="8"/>
       <c r="J74" s="8"/>
       <c r="K74" s="8"/>
       <c r="L74" s="9">
-        <v>62</v>
+        <v>24</v>
       </c>
       <c r="M74" s="9"/>
       <c t="s" r="N74" s="7">
@@ -2963,17 +2978,17 @@
       <c r="F75" s="7"/>
       <c r="G75" s="7"/>
       <c t="s" r="H75" s="8">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="I75" s="8"/>
       <c r="J75" s="8"/>
       <c r="K75" s="8"/>
       <c r="L75" s="9">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="M75" s="9"/>
       <c t="s" r="N75" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="76" ht="24.75" customHeight="1">
@@ -2995,11 +3010,11 @@
       <c r="J76" s="8"/>
       <c r="K76" s="8"/>
       <c r="L76" s="9">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="M76" s="9"/>
       <c t="s" r="N76" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3015,17 +3030,17 @@
       <c r="F77" s="7"/>
       <c r="G77" s="7"/>
       <c t="s" r="H77" s="8">
-        <v>46</v>
+        <v>9</v>
       </c>
       <c r="I77" s="8"/>
       <c r="J77" s="8"/>
       <c r="K77" s="8"/>
       <c r="L77" s="9">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="M77" s="9"/>
       <c t="s" r="N77" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="78" ht="25.5" customHeight="1">
@@ -3041,13 +3056,13 @@
       <c r="F78" s="7"/>
       <c r="G78" s="7"/>
       <c t="s" r="H78" s="8">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="I78" s="8"/>
       <c r="J78" s="8"/>
       <c r="K78" s="8"/>
       <c r="L78" s="9">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="M78" s="9"/>
       <c t="s" r="N78" s="7">
@@ -3067,17 +3082,17 @@
       <c r="F79" s="7"/>
       <c r="G79" s="7"/>
       <c t="s" r="H79" s="8">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="I79" s="8"/>
       <c r="J79" s="8"/>
       <c r="K79" s="8"/>
       <c r="L79" s="9">
-        <v>64</v>
+        <v>38</v>
       </c>
       <c r="M79" s="9"/>
       <c t="s" r="N79" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="80" ht="25.5" customHeight="1">
@@ -3093,17 +3108,17 @@
       <c r="F80" s="7"/>
       <c r="G80" s="7"/>
       <c t="s" r="H80" s="8">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="I80" s="8"/>
       <c r="J80" s="8"/>
       <c r="K80" s="8"/>
       <c r="L80" s="9">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="M80" s="9"/>
       <c t="s" r="N80" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="81" ht="24.75" customHeight="1">
@@ -3119,17 +3134,17 @@
       <c r="F81" s="7"/>
       <c r="G81" s="7"/>
       <c t="s" r="H81" s="8">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="I81" s="8"/>
       <c r="J81" s="8"/>
       <c r="K81" s="8"/>
       <c r="L81" s="9">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="M81" s="9"/>
       <c t="s" r="N81" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3145,17 +3160,17 @@
       <c r="F82" s="7"/>
       <c r="G82" s="7"/>
       <c t="s" r="H82" s="8">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I82" s="8"/>
       <c r="J82" s="8"/>
       <c r="K82" s="8"/>
       <c r="L82" s="9">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="M82" s="9"/>
       <c t="s" r="N82" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="83" ht="25.5" customHeight="1">
@@ -3171,17 +3186,17 @@
       <c r="F83" s="7"/>
       <c r="G83" s="7"/>
       <c t="s" r="H83" s="8">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="I83" s="8"/>
       <c r="J83" s="8"/>
       <c r="K83" s="8"/>
       <c r="L83" s="9">
-        <v>39</v>
+        <v>64</v>
       </c>
       <c r="M83" s="9"/>
       <c t="s" r="N83" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="84" ht="24.75" customHeight="1">
@@ -3197,13 +3212,13 @@
       <c r="F84" s="7"/>
       <c r="G84" s="7"/>
       <c t="s" r="H84" s="8">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I84" s="8"/>
       <c r="J84" s="8"/>
       <c r="K84" s="8"/>
       <c r="L84" s="9">
-        <v>69</v>
+        <v>24</v>
       </c>
       <c r="M84" s="9"/>
       <c t="s" r="N84" s="7">
@@ -3223,17 +3238,17 @@
       <c r="F85" s="7"/>
       <c r="G85" s="7"/>
       <c t="s" r="H85" s="8">
-        <v>114</v>
+        <v>9</v>
       </c>
       <c r="I85" s="8"/>
       <c r="J85" s="8"/>
       <c r="K85" s="8"/>
       <c r="L85" s="9">
-        <v>14</v>
+        <v>63</v>
       </c>
       <c r="M85" s="9"/>
       <c t="s" r="N85" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="86" ht="24.75" customHeight="1">
@@ -3241,7 +3256,7 @@
         <v>83</v>
       </c>
       <c t="s" r="B86" s="7">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C86" s="7"/>
       <c r="D86" s="7"/>
@@ -3249,17 +3264,17 @@
       <c r="F86" s="7"/>
       <c r="G86" s="7"/>
       <c t="s" r="H86" s="8">
-        <v>116</v>
+        <v>12</v>
       </c>
       <c r="I86" s="8"/>
       <c r="J86" s="8"/>
       <c r="K86" s="8"/>
       <c r="L86" s="9">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="M86" s="9"/>
       <c t="s" r="N86" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -3267,7 +3282,7 @@
         <v>84</v>
       </c>
       <c t="s" r="B87" s="7">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C87" s="7"/>
       <c r="D87" s="7"/>
@@ -3275,13 +3290,13 @@
       <c r="F87" s="7"/>
       <c r="G87" s="7"/>
       <c t="s" r="H87" s="8">
-        <v>118</v>
+        <v>48</v>
       </c>
       <c r="I87" s="8"/>
       <c r="J87" s="8"/>
       <c r="K87" s="8"/>
       <c r="L87" s="9">
-        <v>20.399999999999999</v>
+        <v>39</v>
       </c>
       <c r="M87" s="9"/>
       <c t="s" r="N87" s="7">
@@ -3293,7 +3308,7 @@
         <v>85</v>
       </c>
       <c t="s" r="B88" s="7">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C88" s="7"/>
       <c r="D88" s="7"/>
@@ -3301,17 +3316,17 @@
       <c r="F88" s="7"/>
       <c r="G88" s="7"/>
       <c t="s" r="H88" s="8">
-        <v>120</v>
+        <v>12</v>
       </c>
       <c r="I88" s="8"/>
       <c r="J88" s="8"/>
       <c r="K88" s="8"/>
       <c r="L88" s="9">
-        <v>26</v>
+        <v>69</v>
       </c>
       <c r="M88" s="9"/>
       <c t="s" r="N88" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="89" ht="24.75" customHeight="1">
@@ -3319,7 +3334,7 @@
         <v>86</v>
       </c>
       <c t="s" r="B89" s="7">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C89" s="7"/>
       <c r="D89" s="7"/>
@@ -3327,17 +3342,17 @@
       <c r="F89" s="7"/>
       <c r="G89" s="7"/>
       <c t="s" r="H89" s="8">
-        <v>43</v>
+        <v>118</v>
       </c>
       <c r="I89" s="8"/>
       <c r="J89" s="8"/>
       <c r="K89" s="8"/>
       <c r="L89" s="9">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="M89" s="9"/>
       <c t="s" r="N89" s="7">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="90" ht="25.5" customHeight="1">
@@ -3345,7 +3360,7 @@
         <v>87</v>
       </c>
       <c t="s" r="B90" s="7">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C90" s="7"/>
       <c r="D90" s="7"/>
@@ -3353,17 +3368,17 @@
       <c r="F90" s="7"/>
       <c r="G90" s="7"/>
       <c t="s" r="H90" s="8">
-        <v>18</v>
+        <v>120</v>
       </c>
       <c r="I90" s="8"/>
       <c r="J90" s="8"/>
       <c r="K90" s="8"/>
       <c r="L90" s="9">
-        <v>175</v>
+        <v>15</v>
       </c>
       <c r="M90" s="9"/>
       <c t="s" r="N90" s="7">
-        <v>104</v>
+        <v>11</v>
       </c>
     </row>
     <row r="91" ht="24.75" customHeight="1">
@@ -3371,7 +3386,7 @@
         <v>88</v>
       </c>
       <c t="s" r="B91" s="7">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C91" s="7"/>
       <c r="D91" s="7"/>
@@ -3379,17 +3394,17 @@
       <c r="F91" s="7"/>
       <c r="G91" s="7"/>
       <c t="s" r="H91" s="8">
-        <v>12</v>
+        <v>122</v>
       </c>
       <c r="I91" s="8"/>
       <c r="J91" s="8"/>
       <c r="K91" s="8"/>
       <c r="L91" s="9">
-        <v>149.5</v>
+        <v>20.399999999999999</v>
       </c>
       <c r="M91" s="9"/>
       <c t="s" r="N91" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -3397,7 +3412,7 @@
         <v>89</v>
       </c>
       <c t="s" r="B92" s="7">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C92" s="7"/>
       <c r="D92" s="7"/>
@@ -3405,17 +3420,17 @@
       <c r="F92" s="7"/>
       <c r="G92" s="7"/>
       <c t="s" r="H92" s="8">
-        <v>9</v>
+        <v>124</v>
       </c>
       <c r="I92" s="8"/>
       <c r="J92" s="8"/>
       <c r="K92" s="8"/>
       <c r="L92" s="9">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="M92" s="9"/>
       <c t="s" r="N92" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="93" ht="25.5" customHeight="1">
@@ -3431,13 +3446,13 @@
       <c r="F93" s="7"/>
       <c r="G93" s="7"/>
       <c t="s" r="H93" s="8">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="I93" s="8"/>
       <c r="J93" s="8"/>
       <c r="K93" s="8"/>
       <c r="L93" s="9">
-        <v>80</v>
+        <v>23</v>
       </c>
       <c r="M93" s="9"/>
       <c t="s" r="N93" s="7">
@@ -3457,17 +3472,17 @@
       <c r="F94" s="7"/>
       <c r="G94" s="7"/>
       <c t="s" r="H94" s="8">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I94" s="8"/>
       <c r="J94" s="8"/>
       <c r="K94" s="8"/>
       <c r="L94" s="9">
-        <v>-17.09</v>
+        <v>175</v>
       </c>
       <c r="M94" s="9"/>
       <c t="s" r="N94" s="7">
-        <v>11</v>
+        <v>45</v>
       </c>
     </row>
     <row r="95" ht="25.5" customHeight="1">
@@ -3483,13 +3498,13 @@
       <c r="F95" s="7"/>
       <c r="G95" s="7"/>
       <c t="s" r="H95" s="8">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I95" s="8"/>
       <c r="J95" s="8"/>
       <c r="K95" s="8"/>
       <c r="L95" s="9">
-        <v>23</v>
+        <v>149.5</v>
       </c>
       <c r="M95" s="9"/>
       <c t="s" r="N95" s="7">
@@ -3509,13 +3524,13 @@
       <c r="F96" s="7"/>
       <c r="G96" s="7"/>
       <c t="s" r="H96" s="8">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I96" s="8"/>
       <c r="J96" s="8"/>
       <c r="K96" s="8"/>
       <c r="L96" s="9">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="M96" s="9"/>
       <c t="s" r="N96" s="7">
@@ -3535,17 +3550,17 @@
       <c r="F97" s="7"/>
       <c r="G97" s="7"/>
       <c t="s" r="H97" s="8">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="I97" s="8"/>
       <c r="J97" s="8"/>
       <c r="K97" s="8"/>
       <c r="L97" s="9">
-        <v>18</v>
+        <v>80</v>
       </c>
       <c r="M97" s="9"/>
       <c t="s" r="N97" s="7">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="98" ht="25.5" customHeight="1">
@@ -3561,17 +3576,17 @@
       <c r="F98" s="7"/>
       <c r="G98" s="7"/>
       <c t="s" r="H98" s="8">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="I98" s="8"/>
       <c r="J98" s="8"/>
       <c r="K98" s="8"/>
       <c r="L98" s="9">
-        <v>31</v>
+        <v>-17.09</v>
       </c>
       <c r="M98" s="9"/>
       <c t="s" r="N98" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="99" ht="24.75" customHeight="1">
@@ -3587,13 +3602,13 @@
       <c r="F99" s="7"/>
       <c r="G99" s="7"/>
       <c t="s" r="H99" s="8">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I99" s="8"/>
       <c r="J99" s="8"/>
       <c r="K99" s="8"/>
       <c r="L99" s="9">
-        <v>122</v>
+        <v>23</v>
       </c>
       <c r="M99" s="9"/>
       <c t="s" r="N99" s="7">
@@ -3613,17 +3628,17 @@
       <c r="F100" s="7"/>
       <c r="G100" s="7"/>
       <c t="s" r="H100" s="8">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I100" s="8"/>
       <c r="J100" s="8"/>
       <c r="K100" s="8"/>
       <c r="L100" s="9">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M100" s="9"/>
       <c t="s" r="N100" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="101" ht="24.75" customHeight="1">
@@ -3639,17 +3654,17 @@
       <c r="F101" s="7"/>
       <c r="G101" s="7"/>
       <c t="s" r="H101" s="8">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="I101" s="8"/>
       <c r="J101" s="8"/>
       <c r="K101" s="8"/>
       <c r="L101" s="9">
-        <v>32.5</v>
+        <v>18</v>
       </c>
       <c r="M101" s="9"/>
       <c t="s" r="N101" s="7">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -3665,13 +3680,13 @@
       <c r="F102" s="7"/>
       <c r="G102" s="7"/>
       <c t="s" r="H102" s="8">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="I102" s="8"/>
       <c r="J102" s="8"/>
       <c r="K102" s="8"/>
       <c r="L102" s="9">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="M102" s="9"/>
       <c t="s" r="N102" s="7">
@@ -3697,7 +3712,7 @@
       <c r="J103" s="8"/>
       <c r="K103" s="8"/>
       <c r="L103" s="9">
-        <v>170</v>
+        <v>122</v>
       </c>
       <c r="M103" s="9"/>
       <c t="s" r="N103" s="7">
@@ -3717,17 +3732,17 @@
       <c r="F104" s="7"/>
       <c r="G104" s="7"/>
       <c t="s" r="H104" s="8">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I104" s="8"/>
       <c r="J104" s="8"/>
       <c r="K104" s="8"/>
       <c r="L104" s="9">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="M104" s="9"/>
       <c t="s" r="N104" s="7">
-        <v>9</v>
+        <v>122</v>
       </c>
     </row>
     <row r="105" ht="25.5" customHeight="1">
@@ -3743,17 +3758,17 @@
       <c r="F105" s="7"/>
       <c r="G105" s="7"/>
       <c t="s" r="H105" s="8">
-        <v>138</v>
+        <v>18</v>
       </c>
       <c r="I105" s="8"/>
       <c r="J105" s="8"/>
       <c r="K105" s="8"/>
       <c r="L105" s="9">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="M105" s="9"/>
       <c t="s" r="N105" s="7">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="106" ht="24.75" customHeight="1">
@@ -3761,7 +3776,7 @@
         <v>103</v>
       </c>
       <c t="s" r="B106" s="7">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C106" s="7"/>
       <c r="D106" s="7"/>
@@ -3769,17 +3784,17 @@
       <c r="F106" s="7"/>
       <c r="G106" s="7"/>
       <c t="s" r="H106" s="8">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I106" s="8"/>
       <c r="J106" s="8"/>
       <c r="K106" s="8"/>
       <c r="L106" s="9">
-        <v>56</v>
+        <v>32.5</v>
       </c>
       <c r="M106" s="9"/>
       <c t="s" r="N106" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -3787,7 +3802,7 @@
         <v>104</v>
       </c>
       <c t="s" r="B107" s="7">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C107" s="7"/>
       <c r="D107" s="7"/>
@@ -3795,17 +3810,17 @@
       <c r="F107" s="7"/>
       <c r="G107" s="7"/>
       <c t="s" r="H107" s="8">
-        <v>46</v>
+        <v>104</v>
       </c>
       <c r="I107" s="8"/>
       <c r="J107" s="8"/>
       <c r="K107" s="8"/>
       <c r="L107" s="9">
-        <v>94.5</v>
+        <v>26</v>
       </c>
       <c r="M107" s="9"/>
       <c t="s" r="N107" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="108" ht="25.5" customHeight="1">
@@ -3813,7 +3828,7 @@
         <v>105</v>
       </c>
       <c t="s" r="B108" s="7">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C108" s="7"/>
       <c r="D108" s="7"/>
@@ -3821,17 +3836,17 @@
       <c r="F108" s="7"/>
       <c r="G108" s="7"/>
       <c t="s" r="H108" s="8">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="I108" s="8"/>
       <c r="J108" s="8"/>
       <c r="K108" s="8"/>
       <c r="L108" s="9">
-        <v>66.640000000000001</v>
+        <v>170</v>
       </c>
       <c r="M108" s="9"/>
       <c t="s" r="N108" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="109" ht="24.75" customHeight="1">
@@ -3839,7 +3854,7 @@
         <v>106</v>
       </c>
       <c t="s" r="B109" s="7">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C109" s="7"/>
       <c r="D109" s="7"/>
@@ -3847,13 +3862,13 @@
       <c r="F109" s="7"/>
       <c r="G109" s="7"/>
       <c t="s" r="H109" s="8">
-        <v>143</v>
+        <v>12</v>
       </c>
       <c r="I109" s="8"/>
       <c r="J109" s="8"/>
       <c r="K109" s="8"/>
       <c r="L109" s="9">
-        <v>34</v>
+        <v>68</v>
       </c>
       <c r="M109" s="9"/>
       <c t="s" r="N109" s="7">
@@ -3865,7 +3880,7 @@
         <v>107</v>
       </c>
       <c t="s" r="B110" s="7">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C110" s="7"/>
       <c r="D110" s="7"/>
@@ -3873,17 +3888,17 @@
       <c r="F110" s="7"/>
       <c r="G110" s="7"/>
       <c t="s" r="H110" s="8">
-        <v>18</v>
+        <v>143</v>
       </c>
       <c r="I110" s="8"/>
       <c r="J110" s="8"/>
       <c r="K110" s="8"/>
       <c r="L110" s="9">
-        <v>60</v>
+        <v>5</v>
       </c>
       <c r="M110" s="9"/>
       <c t="s" r="N110" s="7">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="111" ht="24.75" customHeight="1">
@@ -3891,7 +3906,7 @@
         <v>108</v>
       </c>
       <c t="s" r="B111" s="7">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C111" s="7"/>
       <c r="D111" s="7"/>
@@ -3905,7 +3920,7 @@
       <c r="J111" s="8"/>
       <c r="K111" s="8"/>
       <c r="L111" s="9">
-        <v>133.65000000000001</v>
+        <v>56</v>
       </c>
       <c r="M111" s="9"/>
       <c t="s" r="N111" s="7">
@@ -3917,7 +3932,7 @@
         <v>109</v>
       </c>
       <c t="s" r="B112" s="7">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C112" s="7"/>
       <c r="D112" s="7"/>
@@ -3925,17 +3940,17 @@
       <c r="F112" s="7"/>
       <c r="G112" s="7"/>
       <c t="s" r="H112" s="8">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="I112" s="8"/>
       <c r="J112" s="8"/>
       <c r="K112" s="8"/>
       <c r="L112" s="9">
-        <v>66.959999999999994</v>
+        <v>94.5</v>
       </c>
       <c r="M112" s="9"/>
       <c t="s" r="N112" s="7">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="113" ht="25.5" customHeight="1">
@@ -3943,7 +3958,7 @@
         <v>110</v>
       </c>
       <c t="s" r="B113" s="7">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C113" s="7"/>
       <c r="D113" s="7"/>
@@ -3951,17 +3966,17 @@
       <c r="F113" s="7"/>
       <c r="G113" s="7"/>
       <c t="s" r="H113" s="8">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="I113" s="8"/>
       <c r="J113" s="8"/>
       <c r="K113" s="8"/>
       <c r="L113" s="9">
-        <v>-375</v>
+        <v>66.640000000000001</v>
       </c>
       <c r="M113" s="9"/>
       <c t="s" r="N113" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="114" ht="24.75" customHeight="1">
@@ -3969,7 +3984,7 @@
         <v>111</v>
       </c>
       <c t="s" r="B114" s="7">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C114" s="7"/>
       <c r="D114" s="7"/>
@@ -3977,13 +3992,13 @@
       <c r="F114" s="7"/>
       <c r="G114" s="7"/>
       <c t="s" r="H114" s="8">
-        <v>12</v>
+        <v>148</v>
       </c>
       <c r="I114" s="8"/>
       <c r="J114" s="8"/>
       <c r="K114" s="8"/>
       <c r="L114" s="9">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="M114" s="9"/>
       <c t="s" r="N114" s="7">
@@ -4003,13 +4018,13 @@
       <c r="F115" s="7"/>
       <c r="G115" s="7"/>
       <c t="s" r="H115" s="8">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="I115" s="8"/>
       <c r="J115" s="8"/>
       <c r="K115" s="8"/>
       <c r="L115" s="9">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="M115" s="9"/>
       <c t="s" r="N115" s="7">
@@ -4029,17 +4044,17 @@
       <c r="F116" s="7"/>
       <c r="G116" s="7"/>
       <c t="s" r="H116" s="8">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="I116" s="8"/>
       <c r="J116" s="8"/>
       <c r="K116" s="8"/>
       <c r="L116" s="9">
-        <v>14</v>
+        <v>133.65000000000001</v>
       </c>
       <c r="M116" s="9"/>
       <c t="s" r="N116" s="7">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -4055,17 +4070,17 @@
       <c r="F117" s="7"/>
       <c r="G117" s="7"/>
       <c t="s" r="H117" s="8">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="I117" s="8"/>
       <c r="J117" s="8"/>
       <c r="K117" s="8"/>
       <c r="L117" s="9">
-        <v>40</v>
+        <v>66.959999999999994</v>
       </c>
       <c r="M117" s="9"/>
       <c t="s" r="N117" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="118" ht="25.5" customHeight="1">
@@ -4081,17 +4096,17 @@
       <c r="F118" s="7"/>
       <c r="G118" s="7"/>
       <c t="s" r="H118" s="8">
-        <v>153</v>
+        <v>18</v>
       </c>
       <c r="I118" s="8"/>
       <c r="J118" s="8"/>
       <c r="K118" s="8"/>
       <c r="L118" s="9">
-        <v>29.879999999999999</v>
+        <v>-375</v>
       </c>
       <c r="M118" s="9"/>
       <c t="s" r="N118" s="7">
-        <v>154</v>
+        <v>9</v>
       </c>
     </row>
     <row r="119" ht="24.75" customHeight="1">
@@ -4099,7 +4114,7 @@
         <v>116</v>
       </c>
       <c t="s" r="B119" s="7">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C119" s="7"/>
       <c r="D119" s="7"/>
@@ -4107,13 +4122,13 @@
       <c r="F119" s="7"/>
       <c r="G119" s="7"/>
       <c t="s" r="H119" s="8">
-        <v>153</v>
+        <v>12</v>
       </c>
       <c r="I119" s="8"/>
       <c r="J119" s="8"/>
       <c r="K119" s="8"/>
       <c r="L119" s="9">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="M119" s="9"/>
       <c t="s" r="N119" s="7">
@@ -4125,7 +4140,7 @@
         <v>117</v>
       </c>
       <c t="s" r="B120" s="7">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C120" s="7"/>
       <c r="D120" s="7"/>
@@ -4133,13 +4148,13 @@
       <c r="F120" s="7"/>
       <c r="G120" s="7"/>
       <c t="s" r="H120" s="8">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I120" s="8"/>
       <c r="J120" s="8"/>
       <c r="K120" s="8"/>
       <c r="L120" s="9">
-        <v>188.09999999999999</v>
+        <v>25</v>
       </c>
       <c r="M120" s="9"/>
       <c t="s" r="N120" s="7">
@@ -4151,7 +4166,7 @@
         <v>118</v>
       </c>
       <c t="s" r="B121" s="7">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C121" s="7"/>
       <c r="D121" s="7"/>
@@ -4159,17 +4174,17 @@
       <c r="F121" s="7"/>
       <c r="G121" s="7"/>
       <c t="s" r="H121" s="8">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="I121" s="8"/>
       <c r="J121" s="8"/>
       <c r="K121" s="8"/>
       <c r="L121" s="9">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="M121" s="9"/>
       <c t="s" r="N121" s="7">
-        <v>34</v>
+        <v>18</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -4177,7 +4192,7 @@
         <v>119</v>
       </c>
       <c t="s" r="B122" s="7">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C122" s="7"/>
       <c r="D122" s="7"/>
@@ -4185,13 +4200,13 @@
       <c r="F122" s="7"/>
       <c r="G122" s="7"/>
       <c t="s" r="H122" s="8">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="I122" s="8"/>
       <c r="J122" s="8"/>
       <c r="K122" s="8"/>
       <c r="L122" s="9">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="M122" s="9"/>
       <c t="s" r="N122" s="7">
@@ -4203,7 +4218,7 @@
         <v>120</v>
       </c>
       <c t="s" r="B123" s="7">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C123" s="7"/>
       <c r="D123" s="7"/>
@@ -4211,17 +4226,17 @@
       <c r="F123" s="7"/>
       <c r="G123" s="7"/>
       <c t="s" r="H123" s="8">
-        <v>12</v>
+        <v>158</v>
       </c>
       <c r="I123" s="8"/>
       <c r="J123" s="8"/>
       <c r="K123" s="8"/>
       <c r="L123" s="9">
-        <v>210</v>
+        <v>29.879999999999999</v>
       </c>
       <c r="M123" s="9"/>
       <c t="s" r="N123" s="7">
-        <v>9</v>
+        <v>159</v>
       </c>
     </row>
     <row r="124" ht="24.75" customHeight="1">
@@ -4237,13 +4252,13 @@
       <c r="F124" s="7"/>
       <c r="G124" s="7"/>
       <c t="s" r="H124" s="8">
-        <v>34</v>
+        <v>158</v>
       </c>
       <c r="I124" s="8"/>
       <c r="J124" s="8"/>
       <c r="K124" s="8"/>
       <c r="L124" s="9">
-        <v>75</v>
+        <v>2</v>
       </c>
       <c r="M124" s="9"/>
       <c t="s" r="N124" s="7">
@@ -4263,13 +4278,13 @@
       <c r="F125" s="7"/>
       <c r="G125" s="7"/>
       <c t="s" r="H125" s="8">
-        <v>162</v>
+        <v>12</v>
       </c>
       <c r="I125" s="8"/>
       <c r="J125" s="8"/>
       <c r="K125" s="8"/>
       <c r="L125" s="9">
-        <v>15</v>
+        <v>188.09999999999999</v>
       </c>
       <c r="M125" s="9"/>
       <c t="s" r="N125" s="7">
@@ -4281,7 +4296,7 @@
         <v>123</v>
       </c>
       <c t="s" r="B126" s="7">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C126" s="7"/>
       <c r="D126" s="7"/>
@@ -4289,17 +4304,17 @@
       <c r="F126" s="7"/>
       <c r="G126" s="7"/>
       <c t="s" r="H126" s="8">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="I126" s="8"/>
       <c r="J126" s="8"/>
       <c r="K126" s="8"/>
       <c r="L126" s="9">
-        <v>65</v>
+        <v>36</v>
       </c>
       <c r="M126" s="9"/>
       <c t="s" r="N126" s="7">
-        <v>9</v>
+        <v>34</v>
       </c>
     </row>
     <row r="127" ht="25.5" customHeight="1">
@@ -4307,7 +4322,7 @@
         <v>124</v>
       </c>
       <c t="s" r="B127" s="7">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C127" s="7"/>
       <c r="D127" s="7"/>
@@ -4315,13 +4330,13 @@
       <c r="F127" s="7"/>
       <c r="G127" s="7"/>
       <c t="s" r="H127" s="8">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="I127" s="8"/>
       <c r="J127" s="8"/>
       <c r="K127" s="8"/>
       <c r="L127" s="9">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="M127" s="9"/>
       <c t="s" r="N127" s="7">
@@ -4333,7 +4348,7 @@
         <v>125</v>
       </c>
       <c t="s" r="B128" s="7">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C128" s="7"/>
       <c r="D128" s="7"/>
@@ -4341,13 +4356,13 @@
       <c r="F128" s="7"/>
       <c r="G128" s="7"/>
       <c t="s" r="H128" s="8">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I128" s="8"/>
       <c r="J128" s="8"/>
       <c r="K128" s="8"/>
       <c r="L128" s="9">
-        <v>50</v>
+        <v>210</v>
       </c>
       <c r="M128" s="9"/>
       <c t="s" r="N128" s="7">
@@ -4359,7 +4374,7 @@
         <v>126</v>
       </c>
       <c t="s" r="B129" s="7">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C129" s="7"/>
       <c r="D129" s="7"/>
@@ -4367,13 +4382,13 @@
       <c r="F129" s="7"/>
       <c r="G129" s="7"/>
       <c t="s" r="H129" s="8">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="I129" s="8"/>
       <c r="J129" s="8"/>
       <c r="K129" s="8"/>
       <c r="L129" s="9">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="M129" s="9"/>
       <c t="s" r="N129" s="7">
@@ -4385,7 +4400,7 @@
         <v>127</v>
       </c>
       <c t="s" r="B130" s="7">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C130" s="7"/>
       <c r="D130" s="7"/>
@@ -4393,13 +4408,13 @@
       <c r="F130" s="7"/>
       <c r="G130" s="7"/>
       <c t="s" r="H130" s="8">
-        <v>86</v>
+        <v>167</v>
       </c>
       <c r="I130" s="8"/>
       <c r="J130" s="8"/>
       <c r="K130" s="8"/>
       <c r="L130" s="9">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="M130" s="9"/>
       <c t="s" r="N130" s="7">
@@ -4419,13 +4434,13 @@
       <c r="F131" s="7"/>
       <c r="G131" s="7"/>
       <c t="s" r="H131" s="8">
-        <v>104</v>
+        <v>18</v>
       </c>
       <c r="I131" s="8"/>
       <c r="J131" s="8"/>
       <c r="K131" s="8"/>
       <c r="L131" s="9">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="M131" s="9"/>
       <c t="s" r="N131" s="7">
@@ -4445,13 +4460,13 @@
       <c r="F132" s="7"/>
       <c r="G132" s="7"/>
       <c t="s" r="H132" s="8">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="I132" s="8"/>
       <c r="J132" s="8"/>
       <c r="K132" s="8"/>
       <c r="L132" s="9">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="M132" s="9"/>
       <c t="s" r="N132" s="7">
@@ -4471,51 +4486,181 @@
       <c r="F133" s="7"/>
       <c r="G133" s="7"/>
       <c t="s" r="H133" s="8">
-        <v>171</v>
+        <v>18</v>
       </c>
       <c r="I133" s="8"/>
       <c r="J133" s="8"/>
       <c r="K133" s="8"/>
       <c r="L133" s="9">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="M133" s="9"/>
       <c t="s" r="N133" s="7">
         <v>9</v>
       </c>
     </row>
-    <row r="134" ht="25.5" customHeight="1">
-      <c r="K134" s="10">
-        <v>6367.75</v>
-      </c>
-      <c r="L134" s="10"/>
-      <c r="M134" s="10"/>
-      <c r="N134" s="10"/>
-    </row>
-    <row r="135" ht="16.5" customHeight="1">
-      <c t="s" r="A135" s="11">
+    <row r="134" ht="24.75" customHeight="1">
+      <c r="A134" s="6">
+        <v>131</v>
+      </c>
+      <c t="s" r="B134" s="7">
+        <v>171</v>
+      </c>
+      <c r="C134" s="7"/>
+      <c r="D134" s="7"/>
+      <c r="E134" s="7"/>
+      <c r="F134" s="7"/>
+      <c r="G134" s="7"/>
+      <c t="s" r="H134" s="8">
+        <v>55</v>
+      </c>
+      <c r="I134" s="8"/>
+      <c r="J134" s="8"/>
+      <c r="K134" s="8"/>
+      <c r="L134" s="9">
+        <v>20</v>
+      </c>
+      <c r="M134" s="9"/>
+      <c t="s" r="N134" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="135" ht="25.5" customHeight="1">
+      <c r="A135" s="6">
+        <v>132</v>
+      </c>
+      <c t="s" r="B135" s="7">
         <v>172</v>
       </c>
-      <c r="B135" s="11"/>
-      <c r="C135" s="11"/>
-      <c r="D135" s="11"/>
-      <c r="E135" s="11"/>
-      <c t="s" r="F135" s="12">
+      <c r="C135" s="7"/>
+      <c r="D135" s="7"/>
+      <c r="E135" s="7"/>
+      <c r="F135" s="7"/>
+      <c r="G135" s="7"/>
+      <c t="s" r="H135" s="8">
+        <v>89</v>
+      </c>
+      <c r="I135" s="8"/>
+      <c r="J135" s="8"/>
+      <c r="K135" s="8"/>
+      <c r="L135" s="9">
+        <v>35</v>
+      </c>
+      <c r="M135" s="9"/>
+      <c t="s" r="N135" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="136" ht="24.75" customHeight="1">
+      <c r="A136" s="6">
+        <v>133</v>
+      </c>
+      <c t="s" r="B136" s="7">
         <v>173</v>
       </c>
-      <c r="G135" s="12"/>
-      <c r="H135" s="13"/>
-      <c t="s" r="I135" s="14">
+      <c r="C136" s="7"/>
+      <c r="D136" s="7"/>
+      <c r="E136" s="7"/>
+      <c r="F136" s="7"/>
+      <c r="G136" s="7"/>
+      <c t="s" r="H136" s="8">
+        <v>45</v>
+      </c>
+      <c r="I136" s="8"/>
+      <c r="J136" s="8"/>
+      <c r="K136" s="8"/>
+      <c r="L136" s="9">
+        <v>25</v>
+      </c>
+      <c r="M136" s="9"/>
+      <c t="s" r="N136" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="137" ht="25.5" customHeight="1">
+      <c r="A137" s="6">
+        <v>134</v>
+      </c>
+      <c t="s" r="B137" s="7">
         <v>174</v>
       </c>
-      <c r="J135" s="14"/>
-      <c r="K135" s="14"/>
-      <c r="L135" s="14"/>
-      <c r="M135" s="14"/>
-      <c r="N135" s="14"/>
+      <c r="C137" s="7"/>
+      <c r="D137" s="7"/>
+      <c r="E137" s="7"/>
+      <c r="F137" s="7"/>
+      <c r="G137" s="7"/>
+      <c t="s" r="H137" s="8">
+        <v>12</v>
+      </c>
+      <c r="I137" s="8"/>
+      <c r="J137" s="8"/>
+      <c r="K137" s="8"/>
+      <c r="L137" s="9">
+        <v>20</v>
+      </c>
+      <c r="M137" s="9"/>
+      <c t="s" r="N137" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="138" ht="25.5" customHeight="1">
+      <c r="A138" s="6">
+        <v>135</v>
+      </c>
+      <c t="s" r="B138" s="7">
+        <v>175</v>
+      </c>
+      <c r="C138" s="7"/>
+      <c r="D138" s="7"/>
+      <c r="E138" s="7"/>
+      <c r="F138" s="7"/>
+      <c r="G138" s="7"/>
+      <c t="s" r="H138" s="8">
+        <v>176</v>
+      </c>
+      <c r="I138" s="8"/>
+      <c r="J138" s="8"/>
+      <c r="K138" s="8"/>
+      <c r="L138" s="9">
+        <v>45</v>
+      </c>
+      <c r="M138" s="9"/>
+      <c t="s" r="N138" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="139" ht="25.5" customHeight="1">
+      <c r="K139" s="10">
+        <v>6593.75</v>
+      </c>
+      <c r="L139" s="10"/>
+      <c r="M139" s="10"/>
+      <c r="N139" s="10"/>
+    </row>
+    <row r="140" ht="16.5" customHeight="1">
+      <c t="s" r="A140" s="11">
+        <v>177</v>
+      </c>
+      <c r="B140" s="11"/>
+      <c r="C140" s="11"/>
+      <c r="D140" s="11"/>
+      <c r="E140" s="11"/>
+      <c t="s" r="F140" s="12">
+        <v>178</v>
+      </c>
+      <c r="G140" s="12"/>
+      <c r="H140" s="13"/>
+      <c t="s" r="I140" s="14">
+        <v>179</v>
+      </c>
+      <c r="J140" s="14"/>
+      <c r="K140" s="14"/>
+      <c r="L140" s="14"/>
+      <c r="M140" s="14"/>
+      <c r="N140" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="401">
+  <mergeCells count="416">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -4913,10 +5058,25 @@
     <mergeCell ref="B133:G133"/>
     <mergeCell ref="H133:K133"/>
     <mergeCell ref="L133:M133"/>
-    <mergeCell ref="K134:N134"/>
-    <mergeCell ref="A135:E135"/>
-    <mergeCell ref="F135:G135"/>
-    <mergeCell ref="I135:N135"/>
+    <mergeCell ref="B134:G134"/>
+    <mergeCell ref="H134:K134"/>
+    <mergeCell ref="L134:M134"/>
+    <mergeCell ref="B135:G135"/>
+    <mergeCell ref="H135:K135"/>
+    <mergeCell ref="L135:M135"/>
+    <mergeCell ref="B136:G136"/>
+    <mergeCell ref="H136:K136"/>
+    <mergeCell ref="L136:M136"/>
+    <mergeCell ref="B137:G137"/>
+    <mergeCell ref="H137:K137"/>
+    <mergeCell ref="L137:M137"/>
+    <mergeCell ref="B138:G138"/>
+    <mergeCell ref="H138:K138"/>
+    <mergeCell ref="L138:M138"/>
+    <mergeCell ref="K139:N139"/>
+    <mergeCell ref="A140:E140"/>
+    <mergeCell ref="F140:G140"/>
+    <mergeCell ref="I140:N140"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
